--- a/indicators-data/cellphone_usage.xlsx
+++ b/indicators-data/cellphone_usage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucnmuni-my.sharepoint.com/personal/436645_muni_cz/Documents/VŠ/PhD/Zahraniční stáž/Work/HeiGIT_notebooks/analysis/ai-assisted-osm-mapping-stats/indicators-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_1171BE574665C95AF97E5152C1A2665AD2ED28DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CCD3C76-4EB9-4A18-82F1-1D2C8DDAAC7D}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_1171BE574665C95AF97E5152C1A2665AD2ED28DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{314D27DE-972D-4A62-803A-2327C7EB9E3B}"/>
   <bookViews>
-    <workbookView xWindow="-7050" yWindow="-16297" windowWidth="28995" windowHeight="15794" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -946,8 +946,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1256,32 +1257,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>292</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>2018</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>2019</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>2020</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>2021</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>2022</v>
       </c>
     </row>
@@ -1289,19 +1291,19 @@
       <c r="A2" t="s">
         <v>220</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>59.902647780000002</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>59.783879040000002</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>58.190213900000003</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>56.554434569999998</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1309,19 +1311,19 @@
       <c r="A3" t="s">
         <v>197</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>94.364467590000004</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>91.516428640000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>91.350500620000005</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>92.319920409999995</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1329,19 +1331,19 @@
       <c r="A4" t="s">
         <v>96</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>112.4675177</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>106.36960910000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>104.842178</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>106.42353660000001</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1349,19 +1351,19 @@
       <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1369,19 +1371,19 @@
       <c r="A6" t="s">
         <v>201</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>110.13291030000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>115.1500465</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>103.4491634</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>112.346585</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1389,19 +1391,19 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>42.490949139999998</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>45.837741399999999</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>43.810090590000001</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>44.42373173</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1409,19 +1411,19 @@
       <c r="A8" t="s">
         <v>109</v>
       </c>
-      <c r="B8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="1">
         <v>199.74814359999999</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>198.5668652</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>197.38253589999999</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1429,19 +1431,19 @@
       <c r="A9" t="s">
         <v>110</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>131.93716850000001</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>125.9409814</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>121.60018890000001</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>130.45500809999999</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1449,19 +1451,19 @@
       <c r="A10" t="s">
         <v>119</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>126.1831509</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>128.29697350000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>124.35083590000001</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>128.96135899999999</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1469,19 +1471,19 @@
       <c r="A11" t="s">
         <v>271</v>
       </c>
-      <c r="B11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="1">
         <v>132.4665076</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>132.28878359999999</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>132.34962830000001</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1489,19 +1491,19 @@
       <c r="A12" t="s">
         <v>236</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>110.6519296</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>110.29622000000001</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>105.231579</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>105.2617812</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1509,19 +1511,19 @@
       <c r="A13" t="s">
         <v>142</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>124.24619749999999</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>120.7891044</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>120.31559609999999</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>121.9694798</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1529,19 +1531,19 @@
       <c r="A14" t="s">
         <v>247</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>101.84366009999999</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>105.05774940000001</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>100.57704699999999</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>104.88780559999999</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1549,19 +1551,19 @@
       <c r="A15" t="s">
         <v>293</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>96.71589874</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>105.1785039</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>114.6450432</v>
       </c>
-      <c r="E15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1569,19 +1571,19 @@
       <c r="A16" t="s">
         <v>251</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>140.7017898</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>128.4065325</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>119.86485</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>131.44871230000001</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1589,19 +1591,19 @@
       <c r="A17" t="s">
         <v>216</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>98.831686980000001</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>100.0336994</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>105.2911628</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>108.90944260000001</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1609,19 +1611,19 @@
       <c r="A18" t="s">
         <v>118</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>117.7476331</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>117.5408666</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>105.0970277</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>112.60064010000001</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1629,19 +1631,19 @@
       <c r="A19" t="s">
         <v>253</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>119.8449004</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>120.1910673</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>121.49055300000001</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>122.78012870000001</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1649,19 +1651,19 @@
       <c r="A20" t="s">
         <v>256</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>99.989125299999998</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>99.991355769999998</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>99.723328269999996</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>101.10837429999999</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1669,19 +1671,19 @@
       <c r="A21" t="s">
         <v>263</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>64.468180889999999</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>65.515876590000005</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>66.848982070000005</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>65.994885400000001</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1689,19 +1691,19 @@
       <c r="A22" t="s">
         <v>134</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>79.240626349999999</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>84.210521610000001</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>88.118188840000002</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>97.960182029999999</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1709,19 +1711,19 @@
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C23" s="1">
         <v>104.9959255</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>106.2002186</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>105.9437563</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1729,19 +1731,19 @@
       <c r="A24" t="s">
         <v>39</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>92.318290610000005</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>95.019929399999995</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>96.457114899999993</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>100.0671395</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1749,19 +1751,19 @@
       <c r="A25" t="s">
         <v>214</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>98.612248480000005</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>99.248691170000001</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>98.895633290000006</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>99.623071269999997</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1769,19 +1771,19 @@
       <c r="A26" t="s">
         <v>202</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>101.79196140000001</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>111.7477784</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>105.76381979999999</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>113.99694220000001</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1789,19 +1791,19 @@
       <c r="A27" t="s">
         <v>43</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>137.93003859999999</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>149.8882667</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>150.38505309999999</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>160.73698160000001</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1809,19 +1811,19 @@
       <c r="A28" t="s">
         <v>252</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>99.640026520000006</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>95.385052329999994</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>96.547068190000005</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>102.48887000000001</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1829,19 +1831,19 @@
       <c r="A29" t="s">
         <v>1</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>131.70924669999999</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>129.15387129999999</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>113.7593012</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>112.98438400000001</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1849,19 +1851,19 @@
       <c r="A30" t="s">
         <v>124</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>130.32071920000001</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>131.21826830000001</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>121.4758051</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>135.50125399999999</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1869,19 +1871,19 @@
       <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>117.8397093</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>115.3427025</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>113.84927500000001</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>114.7677533</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1889,19 +1891,19 @@
       <c r="A32" t="s">
         <v>157</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>94.833382479999997</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>97.197684629999998</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>102.7626369</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>111.6631328</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1909,19 +1911,19 @@
       <c r="A33" t="s">
         <v>282</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>54.970029940000003</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>55.00739463</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>54.263734569999997</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>61.671282290000001</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1929,19 +1931,19 @@
       <c r="A34" t="s">
         <v>125</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>106.84976589999999</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>103.232241</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>93.493237679999993</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>100.38202149999999</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1949,19 +1951,19 @@
       <c r="A35" t="s">
         <v>144</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>121.1658947</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>132.1508925</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>128.6026166</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>119.9575768</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1969,19 +1971,19 @@
       <c r="A36" t="s">
         <v>50</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>73.597408790000003</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>83.005402810000007</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>84.369169150000005</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>79.967684399999996</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1989,19 +1991,19 @@
       <c r="A37" t="s">
         <v>215</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>89.674017090000007</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>91.590040810000005</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>85.408419210000005</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>88.090655040000001</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2009,19 +2011,19 @@
       <c r="A38" t="s">
         <v>270</v>
       </c>
-      <c r="B38" t="s">
-        <v>183</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="1">
         <v>149.69607160000001</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>148.56633489999999</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>146.76529289999999</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2029,19 +2031,19 @@
       <c r="A39" t="s">
         <v>47</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>25.109249070000001</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>30.623819900000001</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>34.269008909999997</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>33.552287509999999</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2049,19 +2051,19 @@
       <c r="A40" t="s">
         <v>12</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>44.757985179999999</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>47.528385239999999</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>52.191691519999999</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>60.22303015</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2069,19 +2071,19 @@
       <c r="A41" t="s">
         <v>97</v>
       </c>
-      <c r="B41" t="s">
-        <v>183</v>
-      </c>
-      <c r="C41" t="s">
-        <v>183</v>
-      </c>
-      <c r="D41" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" t="s">
-        <v>183</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="B41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2089,19 +2091,19 @@
       <c r="A42" t="s">
         <v>288</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>134.6365175</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>131.57744550000001</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>129.88518060000001</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>136.3134058</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2109,19 +2111,19 @@
       <c r="A43" t="s">
         <v>193</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>116.3882038</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>122.81329030000001</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>120.5961882</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>121.53825260000001</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2129,19 +2131,19 @@
       <c r="A44" t="s">
         <v>233</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>130.92117630000001</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>132.0713308</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>132.87196230000001</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>145.69316760000001</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2149,19 +2151,19 @@
       <c r="A45" t="s">
         <v>273</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>64.265619319999999</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>72.721641090000006</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>96.950131859999999</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>103.8731734</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2169,19 +2171,19 @@
       <c r="A46" t="s">
         <v>122</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>41.878180819999997</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>41.29072644</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>43.938616889999999</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>48.89330021</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2189,19 +2191,19 @@
       <c r="A47" t="s">
         <v>83</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>91.893825140000004</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>91.816228100000004</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>98.523001930000007</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>96.787573129999998</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2209,19 +2211,19 @@
       <c r="A48" t="s">
         <v>180</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>168.5386493</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>143.76878740000001</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>146.63704920000001</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <v>152.00815610000001</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2229,19 +2231,19 @@
       <c r="A49" t="s">
         <v>111</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>132.61106889999999</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>142.9449473</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>149.543339</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>162.1701041</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2249,19 +2251,19 @@
       <c r="A50" t="s">
         <v>285</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>105.47991399999999</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>106.6565741</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>106.805903</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>108.4252864</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2269,19 +2271,19 @@
       <c r="A51" t="s">
         <v>88</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>47.432911930000003</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>53.39569959</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>58.95001353</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>63.10466641</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2289,19 +2291,19 @@
       <c r="A52" t="s">
         <v>228</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>100.9029785</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>95.406173780000003</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>96.149782340000002</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>88.267713229999998</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2309,19 +2311,19 @@
       <c r="A53" t="s">
         <v>112</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>137.0450965</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>139.994482</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>139.63513510000001</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>148.73806310000001</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2329,19 +2331,19 @@
       <c r="A54" t="s">
         <v>156</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>120.5956604</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>124.3382405</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>123.44382090000001</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>126.4124254</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2349,19 +2351,19 @@
       <c r="A55" t="s">
         <v>195</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>125.1362568</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>124.9761468</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>124.4957422</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>125.7822877</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2369,19 +2371,19 @@
       <c r="A56" t="s">
         <v>121</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>37.366415750000002</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>38.535224589999999</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>39.81402662</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>44.261761270000001</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2389,19 +2391,19 @@
       <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>108.46758819999999</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>109.3856751</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>103.62946909999999</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>85.857316470000001</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2409,19 +2411,19 @@
       <c r="A58" t="s">
         <v>127</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>83.020965989999993</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>82.229406639999993</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>81.726014539999994</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>87.564861769999993</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2429,19 +2431,19 @@
       <c r="A59" t="s">
         <v>22</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>92.69594524</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>91.405313960000001</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>88.042086359999999</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>94.33558884</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2449,19 +2451,19 @@
       <c r="A60" t="s">
         <v>164</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>90.402742840000002</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>90.268378780000006</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>88.733362580000005</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>94.680278110000003</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2469,19 +2471,19 @@
       <c r="A61" t="s">
         <v>177</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>150.30243730000001</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>165.5481968</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>158.1030557</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <v>175.33703180000001</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2489,19 +2491,19 @@
       <c r="A62" t="s">
         <v>36</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>39.359972620000001</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>39.728762660000001</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>40.41229311</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>39.462429929999999</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2509,19 +2511,19 @@
       <c r="A63" t="s">
         <v>140</v>
       </c>
-      <c r="B63" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="1">
         <v>37.469796940000002</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>50.648674249999999</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <v>49.747093620000001</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2529,19 +2531,19 @@
       <c r="A64" t="s">
         <v>92</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>145.52334529999999</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>147.02288329999999</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>144.85672210000001</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <v>149.0807939</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2549,19 +2551,19 @@
       <c r="A65" t="s">
         <v>182</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>89.853829790000006</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>91.850723270000003</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>105.81846520000001</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>120.05248810000001</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2569,19 +2571,19 @@
       <c r="A66" t="s">
         <v>24</v>
       </c>
-      <c r="B66" t="s">
-        <v>183</v>
-      </c>
-      <c r="C66">
+      <c r="B66" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C66" s="1">
         <v>36.733072030000002</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>37.97222807</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <v>53.623526230000003</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2589,19 +2591,19 @@
       <c r="A67" t="s">
         <v>258</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>111.4552056</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>106.34275649999999</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>112.9695698</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>111.9592346</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2609,19 +2611,19 @@
       <c r="A68" t="s">
         <v>56</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>110.4466178</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>112.143753</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>107.7223274</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <v>107.2344015</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2629,19 +2631,19 @@
       <c r="A69" t="s">
         <v>78</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>129.63558259999999</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>129.49295269999999</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>128.7646479</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <v>129.1548109</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2649,19 +2651,19 @@
       <c r="A70" t="s">
         <v>218</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>109.55880759999999</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>111.8637727</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>112.8271405</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <v>112.73728819999999</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2669,19 +2671,19 @@
       <c r="A71" t="s">
         <v>100</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>101.7025866</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>106.1000877</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>110.9565448</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
         <v>106.2118461</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2689,19 +2691,19 @@
       <c r="A72" t="s">
         <v>192</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>133.69242499999999</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>133.4416659</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>133.0177927</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <v>134.3173247</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2709,19 +2711,19 @@
       <c r="A73" t="s">
         <v>158</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>130.12279359999999</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>103.0224594</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>104.038819</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <v>101.4408792</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2729,19 +2731,19 @@
       <c r="A74" t="s">
         <v>123</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>144.71815129999999</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>142.7295197</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>135.42804509999999</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>147.75488429999999</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2749,19 +2751,19 @@
       <c r="A75" t="s">
         <v>3</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>129.67947480000001</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>128.9265144</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>128.88672070000001</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <v>127.56485379999999</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2769,19 +2771,19 @@
       <c r="A76" t="s">
         <v>165</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>132.60131200000001</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>129.61328950000001</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>125.7336966</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <v>123.21150919999999</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2789,19 +2791,19 @@
       <c r="A77" t="s">
         <v>73</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>125.7197991</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>124.0232523</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>108.3465819</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <v>104.5270891</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2809,19 +2811,19 @@
       <c r="A78" t="s">
         <v>206</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>114.45921149999999</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>112.370475</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>108.5687131</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <v>110.0393141</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2829,19 +2831,19 @@
       <c r="A79" t="s">
         <v>30</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>109.767392</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>110.2358263</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>117.72748369999999</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <v>118.42362610000001</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2849,19 +2851,19 @@
       <c r="A80" t="s">
         <v>113</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>97.441684859999995</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>94.670968999999999</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>96.035192420000001</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <v>81.067330069999997</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2869,19 +2871,19 @@
       <c r="A81" t="s">
         <v>257</v>
       </c>
-      <c r="B81" t="s">
-        <v>183</v>
-      </c>
-      <c r="C81" t="s">
-        <v>183</v>
-      </c>
-      <c r="D81" t="s">
-        <v>183</v>
-      </c>
-      <c r="E81" t="s">
-        <v>183</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="B81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2889,19 +2891,19 @@
       <c r="A82" t="s">
         <v>55</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>121.4676927</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>122.0257077</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>117.4393951</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <v>125.64875120000001</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2909,19 +2911,19 @@
       <c r="A83" t="s">
         <v>148</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>95.684031300000001</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>99.964760339999998</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>104.466802</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="1">
         <v>101.9442494</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2929,19 +2931,19 @@
       <c r="A84" t="s">
         <v>52</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>76.910421279999994</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>80.711317579999999</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>94.941532710000004</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <v>108.53050949999999</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2949,19 +2951,19 @@
       <c r="A85" t="s">
         <v>93</v>
       </c>
-      <c r="B85" t="s">
-        <v>183</v>
-      </c>
-      <c r="C85">
+      <c r="B85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C85" s="1">
         <v>97.401825090000003</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>107.375546</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <v>106.3926311</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2969,19 +2971,19 @@
       <c r="A86" t="s">
         <v>135</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>59.95845963</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>61.318202739999997</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>64.73094691</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <v>63.934971699999998</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2989,19 +2991,19 @@
       <c r="A87" t="s">
         <v>179</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>77.490761120000002</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>75.910822449999998</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>68.769185759999999</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <v>73.559598010000002</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3009,19 +3011,19 @@
       <c r="A88" t="s">
         <v>204</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>265.97124530000002</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>286.2244771</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>291.49896589999997</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <v>319.42627060000001</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3029,19 +3031,19 @@
       <c r="A89" t="s">
         <v>267</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>102.7165638</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>105.12595640000001</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>105.9697831</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
         <v>106.9277943</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3049,19 +3051,19 @@
       <c r="A90" t="s">
         <v>38</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>116.5506905</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>114.5997217</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>114.9221778</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <v>118.0741761</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3069,19 +3071,19 @@
       <c r="A91" t="s">
         <v>276</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>85.903508329999994</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>83.252861620000004</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>82.621059000000002</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="1">
         <v>81.988933610000004</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3089,19 +3091,19 @@
       <c r="A92" t="s">
         <v>162</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>119.6084851</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>126.5946679</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>130.81109520000001</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <v>133.6505363</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3109,19 +3111,19 @@
       <c r="A93" t="s">
         <v>143</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>103.6264522</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>136.38596129999999</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>146.20766280000001</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="1">
         <v>154.5542763</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3129,19 +3131,19 @@
       <c r="A94" t="s">
         <v>89</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>89.989463099999995</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>89.561131970000005</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>88.059165559999997</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="1">
         <v>93.604414719999994</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3149,19 +3151,19 @@
       <c r="A95" t="s">
         <v>104</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>102.8335051</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>105.3980591</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>105.8205231</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
         <v>107.76771239999999</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3169,19 +3171,19 @@
       <c r="A96" t="s">
         <v>185</v>
       </c>
-      <c r="B96" t="s">
-        <v>183</v>
-      </c>
-      <c r="C96" t="s">
-        <v>183</v>
-      </c>
-      <c r="D96" t="s">
-        <v>183</v>
-      </c>
-      <c r="E96" t="s">
-        <v>183</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="B96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3189,19 +3191,19 @@
       <c r="A97" t="s">
         <v>108</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>126.5301426</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>135.92133759999999</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>140.10863839999999</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
         <v>140.4485071</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3209,19 +3211,19 @@
       <c r="A98" t="s">
         <v>245</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>139.1884938</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>133.0713342</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>130.38704720000001</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="1">
         <v>131.86107000000001</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3229,19 +3231,19 @@
       <c r="A99" t="s">
         <v>196</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>105.44623</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>107.46684260000001</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>101.8728665</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="1">
         <v>102.7483172</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3249,19 +3251,19 @@
       <c r="A100" t="s">
         <v>116</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>142.46688069999999</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>148.2722187</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>155.73896379999999</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="1">
         <v>163.17376909999999</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3269,19 +3271,19 @@
       <c r="A101" t="s">
         <v>260</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>83.478698480000006</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>72.707734209999998</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>63.940611169999997</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="1">
         <v>65.261765089999997</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3289,19 +3291,19 @@
       <c r="A102" t="s">
         <v>268</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>140.60557130000001</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>137.12992539999999</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>128.00247089999999</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="1">
         <v>127.4765953</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3309,19 +3311,19 @@
       <c r="A103" t="s">
         <v>159</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>99.095407179999995</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>107.0734925</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>118.12634920000001</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="1">
         <v>122.7902388</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3329,19 +3331,19 @@
       <c r="A104" t="s">
         <v>17</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>43.62598354</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>43.99352871</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>43.222577180000002</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="1">
         <v>40.839890130000001</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3349,19 +3351,19 @@
       <c r="A105" t="s">
         <v>237</v>
       </c>
-      <c r="B105" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105">
+      <c r="B105" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C105" s="1">
         <v>16.513015639999999</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>23.19515861</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="1">
         <v>23.101882880000002</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3369,19 +3371,19 @@
       <c r="A106" t="s">
         <v>84</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>128.40510560000001</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>132.98735049999999</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>136.00944670000001</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="1">
         <v>140.56588189999999</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3389,19 +3391,19 @@
       <c r="A107" t="s">
         <v>8</v>
       </c>
-      <c r="B107" t="s">
-        <v>183</v>
-      </c>
-      <c r="C107" t="s">
-        <v>183</v>
-      </c>
-      <c r="D107" t="s">
-        <v>183</v>
-      </c>
-      <c r="E107" t="s">
-        <v>183</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="B107" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3409,19 +3411,19 @@
       <c r="A108" t="s">
         <v>64</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
         <v>164.45549589999999</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>164.98227919999999</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>155.26735350000001</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="1">
         <v>162.7763396</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3429,19 +3431,19 @@
       <c r="A109" t="s">
         <v>217</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
         <v>140.35919369999999</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>136.35439260000001</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>132.46952390000001</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="1">
         <v>130.38197120000001</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3449,19 +3451,19 @@
       <c r="A110" t="s">
         <v>10</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>51.545853729999997</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>64.294119859999995</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>63.347960669999999</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="1">
         <v>64.955357919999997</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3469,19 +3471,19 @@
       <c r="A111" t="s">
         <v>72</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>106.9512252</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>108.09248890000001</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>108.1340417</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="1">
         <v>115.358508</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3489,19 +3491,19 @@
       <c r="A112" t="s">
         <v>19</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>74.345567070000001</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>73.296971619999994</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>75.724502040000004</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="1">
         <v>76.676272760000003</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3509,19 +3511,19 @@
       <c r="A113" t="s">
         <v>244</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>71.980380499999995</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>75.555173150000002</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>69.324697220000004</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="1">
         <v>79.833912929999997</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3529,19 +3531,19 @@
       <c r="A114" t="s">
         <v>151</v>
       </c>
-      <c r="B114" t="s">
-        <v>183</v>
-      </c>
-      <c r="C114">
+      <c r="B114" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114" s="1">
         <v>38.854317170000002</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>32.490864029999997</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="1">
         <v>31.828761650000001</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3549,19 +3551,19 @@
       <c r="A115" t="s">
         <v>246</v>
       </c>
-      <c r="B115" t="s">
-        <v>183</v>
-      </c>
-      <c r="C115">
+      <c r="B115" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C115" s="1">
         <v>56.598419749999998</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>43.913818300000003</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="1">
         <v>43.383516370000002</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3569,19 +3571,19 @@
       <c r="A116" t="s">
         <v>45</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1">
         <v>123.81027210000001</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>124.07879010000001</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>126.14046860000001</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="1">
         <v>126.0867338</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3589,19 +3591,19 @@
       <c r="A117" t="s">
         <v>226</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>130.89368759999999</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>130.01579810000001</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>130.2002612</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="1">
         <v>133.7323188</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3609,19 +3611,19 @@
       <c r="A118" t="s">
         <v>126</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>131.3674819</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>131.91058319999999</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>132.95050760000001</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="1">
         <v>137.0751156</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3629,19 +3631,19 @@
       <c r="A119" t="s">
         <v>7</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>335.05747389999999</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>420.85309769999998</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <v>412.99278559999999</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="1">
         <v>406.78291949999999</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3649,19 +3651,19 @@
       <c r="A120" t="s">
         <v>277</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
         <v>39.687459179999998</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>47.226734159999999</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>56.222853800000003</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="1">
         <v>56.300416249999998</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3669,19 +3671,19 @@
       <c r="A121" t="s">
         <v>254</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>38.52869707</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>47.176912139999999</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>51.631565799999997</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="1">
         <v>60.031623340000003</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3689,19 +3691,19 @@
       <c r="A122" t="s">
         <v>146</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
         <v>130.908501</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>135.96108039999999</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>131.6976181</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="1">
         <v>140.59056749999999</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3709,19 +3711,19 @@
       <c r="A123" t="s">
         <v>174</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1">
         <v>175.17508649999999</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>164.1286164</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <v>139.51302200000001</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="1">
         <v>135.39786520000001</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3729,19 +3731,19 @@
       <c r="A124" t="s">
         <v>168</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1">
         <v>110.13964470000001</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>111.46501379999999</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
         <v>119.2779414</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="1">
         <v>111.0929919</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3749,19 +3751,19 @@
       <c r="A125" t="s">
         <v>131</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1">
         <v>125.2767573</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>125.96171029999999</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>122.85110539999999</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="1">
         <v>123.3832876</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3769,19 +3771,19 @@
       <c r="A126" t="s">
         <v>40</v>
       </c>
-      <c r="B126" t="s">
-        <v>183</v>
-      </c>
-      <c r="C126">
+      <c r="B126" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C126" s="1">
         <v>35.771776070000001</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <v>36.854470910000003</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="1">
         <v>38.049940550000002</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3789,19 +3791,19 @@
       <c r="A127" t="s">
         <v>175</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1">
         <v>106.92601139999999</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>107.4581053</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <v>129.12692469999999</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="1">
         <v>141.1137094</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3809,19 +3811,19 @@
       <c r="A128" t="s">
         <v>274</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1">
         <v>148.06454629999999</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>143.9967785</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>147.3924126</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="1">
         <v>151.76512700000001</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F128" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3829,19 +3831,19 @@
       <c r="A129" t="s">
         <v>275</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
         <v>96.896685629999993</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>97.561569000000006</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <v>97.539720810000006</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="1">
         <v>99.305264159999993</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3849,19 +3851,19 @@
       <c r="A130" t="s">
         <v>154</v>
       </c>
-      <c r="B130" t="s">
-        <v>183</v>
-      </c>
-      <c r="C130">
+      <c r="B130" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C130" s="1">
         <v>20.650397739999999</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
         <v>19.624284159999998</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="1">
         <v>19.446482400000001</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3869,19 +3871,19 @@
       <c r="A131" t="s">
         <v>99</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="1">
         <v>115.7581058</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>116.21985720000001</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="1">
         <v>110.876909</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="1">
         <v>127.3941322</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3889,19 +3891,19 @@
       <c r="A132" t="s">
         <v>171</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="1">
         <v>88.279456640000006</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>91.221580169999996</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="1">
         <v>96.108011480000002</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="1">
         <v>98.825164909999998</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3909,19 +3911,19 @@
       <c r="A133" t="s">
         <v>65</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1">
         <v>133.44036059999999</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>136.705791</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="1">
         <v>132.46737200000001</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="1">
         <v>140.01222300000001</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3929,19 +3931,19 @@
       <c r="A134" t="s">
         <v>31</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="1">
         <v>179.65048970000001</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>182.58332859999999</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="1">
         <v>171.70215949999999</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="1">
         <v>178.3957863</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F134" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3949,19 +3951,19 @@
       <c r="A135" t="s">
         <v>278</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="1">
         <v>124.1715549</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>127.9529984</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1">
         <v>133.89399399999999</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="1">
         <v>137.45927380000001</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F135" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3969,19 +3971,19 @@
       <c r="A136" t="s">
         <v>82</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="1">
         <v>47.832743190000002</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>48.780167599999999</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1">
         <v>49.596213560000002</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="1">
         <v>42.666718459999998</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3989,19 +3991,19 @@
       <c r="A137" t="s">
         <v>41</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="1">
         <v>116.0975729</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>154.4969145</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1">
         <v>147.03037620000001</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="1">
         <v>126.2686102</v>
       </c>
-      <c r="F137" t="s">
+      <c r="F137" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4009,19 +4011,19 @@
       <c r="A138" t="s">
         <v>262</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="1">
         <v>114.69908719999999</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>115.4093117</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="1">
         <v>116.4327399</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="1">
         <v>115.2226488</v>
       </c>
-      <c r="F138" t="s">
+      <c r="F138" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4029,19 +4031,19 @@
       <c r="A139" t="s">
         <v>15</v>
       </c>
-      <c r="B139" t="s">
-        <v>183</v>
-      </c>
-      <c r="C139">
+      <c r="B139" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C139" s="1">
         <v>82.426640289999995</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="1">
         <v>81.201786440000006</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="1">
         <v>79.923273660000007</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4049,19 +4051,19 @@
       <c r="A140" t="s">
         <v>20</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1">
         <v>137.4358818</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>134.2096779</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="1">
         <v>130.20370600000001</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="1">
         <v>127.22828029999999</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4069,19 +4071,19 @@
       <c r="A141" t="s">
         <v>5</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1">
         <v>122.1100816</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>125.33359230000001</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="1">
         <v>122.8307665</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="1">
         <v>125.0621654</v>
       </c>
-      <c r="F141" t="s">
+      <c r="F141" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4089,19 +4091,19 @@
       <c r="A142" t="s">
         <v>63</v>
       </c>
-      <c r="B142" t="s">
-        <v>183</v>
-      </c>
-      <c r="C142">
+      <c r="B142" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C142" s="1">
         <v>91.108510240000001</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="1">
         <v>90.781171979999996</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="1">
         <v>90.340514249999998</v>
       </c>
-      <c r="F142" t="s">
+      <c r="F142" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4109,19 +4111,19 @@
       <c r="A143" t="s">
         <v>66</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1">
         <v>130.59762420000001</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>121.2131234</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="1">
         <v>123.2134933</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="1">
         <v>113.96315749999999</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4129,19 +4131,19 @@
       <c r="A144" t="s">
         <v>203</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1">
         <v>113.2267851</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>86.862215120000002</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="1">
         <v>88.251608410000003</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="1">
         <v>97.108987029999994</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F144" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4149,19 +4151,19 @@
       <c r="A145" t="s">
         <v>264</v>
       </c>
-      <c r="B145" t="s">
-        <v>183</v>
-      </c>
-      <c r="C145">
+      <c r="B145" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C145" s="1">
         <v>51.694735479999999</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="1">
         <v>58.515703299999998</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="1">
         <v>56.386000690000003</v>
       </c>
-      <c r="F145" t="s">
+      <c r="F145" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4169,19 +4171,19 @@
       <c r="A146" t="s">
         <v>85</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
         <v>87.06722748</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>90.795954969999997</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="1">
         <v>98.032555520000003</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="1">
         <v>91.437233030000002</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F146" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4189,19 +4191,19 @@
       <c r="A147" t="s">
         <v>130</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
         <v>93.168553829999993</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>90.863438049999999</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="1">
         <v>88.208171010000001</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="1">
         <v>92.298973529999998</v>
       </c>
-      <c r="F147" t="s">
+      <c r="F147" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4209,19 +4211,19 @@
       <c r="A148" t="s">
         <v>28</v>
       </c>
-      <c r="B148" t="s">
-        <v>183</v>
-      </c>
-      <c r="C148" t="s">
-        <v>183</v>
-      </c>
-      <c r="D148" t="s">
-        <v>183</v>
-      </c>
-      <c r="E148" t="s">
-        <v>183</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="B148" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4229,19 +4231,19 @@
       <c r="A149" t="s">
         <v>139</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="1">
         <v>107.6910276</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>107.99419930000001</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="1">
         <v>108.285471</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="1">
         <v>107.8208654</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4249,19 +4251,19 @@
       <c r="A150" t="s">
         <v>169</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="1">
         <v>139.96741639999999</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>138.2321115</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
         <v>140.06864920000001</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="1">
         <v>135.07697279999999</v>
       </c>
-      <c r="F150" t="s">
+      <c r="F150" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4269,19 +4271,19 @@
       <c r="A151" t="s">
         <v>281</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="1">
         <v>70.079447740000006</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>74.075604510000005</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="1">
         <v>77.300564800000004</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="1">
         <v>81.551307850000001</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F151" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4289,19 +4291,19 @@
       <c r="A152" t="s">
         <v>172</v>
       </c>
-      <c r="B152" t="s">
-        <v>183</v>
-      </c>
-      <c r="C152">
+      <c r="B152" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C152" s="1">
         <v>133.9584729</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="1">
         <v>133.54106390000001</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="1">
         <v>133.1557923</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4309,19 +4311,19 @@
       <c r="A153" t="s">
         <v>69</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="1">
         <v>137.38345849999999</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>137.64047149999999</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="1">
         <v>142.24547530000001</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="1">
         <v>137.96567759999999</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4329,19 +4331,19 @@
       <c r="A154" t="s">
         <v>243</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="1">
         <v>46.091707280000001</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>47.524303420000003</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="1">
         <v>49.417209249999999</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="1">
         <v>48.424850569999997</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4349,19 +4351,19 @@
       <c r="A155" t="s">
         <v>81</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1">
         <v>115.46349960000001</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>118.8639678</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="1">
         <v>118.83082690000001</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="1">
         <v>118.9635011</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4369,19 +4371,19 @@
       <c r="A156" t="s">
         <v>35</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="1">
         <v>130.89940469999999</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>121.38547370000001</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="1">
         <v>118.176464</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="1">
         <v>127.9216675</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4389,19 +4391,19 @@
       <c r="A157" t="s">
         <v>207</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1">
         <v>123.97573920000001</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <v>151.58653129999999</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="1">
         <v>133.32570050000001</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="1">
         <v>143.4358742</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4409,19 +4411,19 @@
       <c r="A158" t="s">
         <v>198</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="1">
         <v>125.3471416</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <v>125.71685359999999</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="1">
         <v>128.42264489999999</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="1">
         <v>132.05882800000001</v>
       </c>
-      <c r="F158" t="s">
+      <c r="F158" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4429,19 +4431,19 @@
       <c r="A159" t="s">
         <v>58</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="1">
         <v>115.25498709999999</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>115.74188650000001</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="1">
         <v>115.07897699999999</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="1">
         <v>120.94255029999999</v>
       </c>
-      <c r="F159" t="s">
+      <c r="F159" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4449,19 +4451,19 @@
       <c r="A160" t="s">
         <v>68</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1">
         <v>100.3319104</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <v>102.4016319</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="1">
         <v>106.82046870000001</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="1">
         <v>112.4430134</v>
       </c>
-      <c r="F160" t="s">
+      <c r="F160" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4469,19 +4471,19 @@
       <c r="A161" t="s">
         <v>178</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
         <v>142.62234290000001</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>139.55265589999999</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="1">
         <v>137.6081235</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="1">
         <v>144.20238560000001</v>
       </c>
-      <c r="F161" t="s">
+      <c r="F161" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4489,19 +4491,19 @@
       <c r="A162" t="s">
         <v>209</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
         <v>115.43964149999999</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>116.1173683</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="1">
         <v>116.1812357</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="1">
         <v>118.6275646</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4509,19 +4511,19 @@
       <c r="A163" t="s">
         <v>4</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
         <v>157.43131199999999</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>164.38763109999999</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="1">
         <v>163.58933569999999</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="1">
         <v>168.98472419999999</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4529,19 +4531,19 @@
       <c r="A164" t="s">
         <v>189</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
         <v>77.407896769999994</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>75.251475880000001</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="1">
         <v>80.74026868</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="1">
         <v>80.991529569999997</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4549,19 +4551,19 @@
       <c r="A165" t="s">
         <v>238</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1">
         <v>47.686944750000002</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>39.6404049</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="1">
         <v>32.103624920000001</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="1">
         <v>31.540838529999998</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4569,19 +4571,19 @@
       <c r="A166" t="s">
         <v>101</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1">
         <v>112.7181169</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <v>113.3770262</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="1">
         <v>114.6822713</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="1">
         <v>118.5325668</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4589,19 +4591,19 @@
       <c r="A167" t="s">
         <v>205</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1">
         <v>76.940911499999999</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>77.242205229999996</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="1">
         <v>79.675358239999994</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="1">
         <v>84.819839810000005</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4609,19 +4611,19 @@
       <c r="A168" t="s">
         <v>234</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
         <v>117.9691219</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="1">
         <v>115.27119690000001</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="1">
         <v>120.052537</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="1">
         <v>126.36111440000001</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4629,19 +4631,19 @@
       <c r="A169" t="s">
         <v>128</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
         <v>106.3244864</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>111.7482578</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="1">
         <v>116.079391</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="1">
         <v>117.676782</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4649,19 +4651,19 @@
       <c r="A170" t="s">
         <v>289</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
         <v>121.0748239</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>122.0477413</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="1">
         <v>120.2168595</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="1">
         <v>123.7205974</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4669,19 +4671,19 @@
       <c r="A171" t="s">
         <v>163</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1">
         <v>173.56378699999999</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>185.55934540000001</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="1">
         <v>173.88230830000001</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="1">
         <v>172.6683573</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4689,19 +4691,19 @@
       <c r="A172" t="s">
         <v>86</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="1">
         <v>80.841163159999994</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <v>83.633004209999996</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="1">
         <v>83.607312149999998</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="1">
         <v>97.701505150000003</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F172" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4709,19 +4711,19 @@
       <c r="A173" t="s">
         <v>76</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="1">
         <v>147.3617155</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <v>154.00061880000001</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="1">
         <v>142.89316009999999</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="1">
         <v>147.48041599999999</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F173" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4729,19 +4731,19 @@
       <c r="A174" t="s">
         <v>6</v>
       </c>
-      <c r="B174" t="s">
-        <v>183</v>
-      </c>
-      <c r="C174" t="s">
-        <v>183</v>
-      </c>
-      <c r="D174" t="s">
-        <v>183</v>
-      </c>
-      <c r="E174" t="s">
-        <v>183</v>
-      </c>
-      <c r="F174" t="s">
+      <c r="B174" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4749,19 +4751,19 @@
       <c r="A175" t="s">
         <v>60</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="1">
         <v>132.95464849999999</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>135.67358110000001</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="1">
         <v>133.59232470000001</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="1">
         <v>135.1475011</v>
       </c>
-      <c r="F175" t="s">
+      <c r="F175" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4769,19 +4771,19 @@
       <c r="A176" t="s">
         <v>13</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="1">
         <v>117.0914525</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>118.8876247</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="1">
         <v>120.45927519999999</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="1">
         <v>123.0185759</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4789,19 +4791,19 @@
       <c r="A177" t="s">
         <v>190</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="1">
         <v>73.117896270000003</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>70.832734560000006</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="1">
         <v>68.577381040000006</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="1">
         <v>66.963245090000001</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4809,19 +4811,19 @@
       <c r="A178" t="s">
         <v>59</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="1">
         <v>49.659290900000002</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>51.478915979999996</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="1">
         <v>53.480023240000001</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="1">
         <v>51.823609169999997</v>
       </c>
-      <c r="F178" t="s">
+      <c r="F178" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4829,19 +4831,19 @@
       <c r="A179" t="s">
         <v>57</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="1">
         <v>161.19383740000001</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="1">
         <v>166.9433215</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="1">
         <v>163.1909795</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="1">
         <v>168.92439089999999</v>
       </c>
-      <c r="F179" t="s">
+      <c r="F179" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4849,19 +4851,19 @@
       <c r="A180" t="s">
         <v>44</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="1">
         <v>18.433806329999999</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>21.26759221</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="1">
         <v>12.671801200000001</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="1">
         <v>30.480676339999999</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F180" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4869,19 +4871,19 @@
       <c r="A181" t="s">
         <v>210</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="1">
         <v>115.7483421</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="1">
         <v>117.4481914</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="1">
         <v>117.48993280000001</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="1">
         <v>119.81551349999999</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4889,19 +4891,19 @@
       <c r="A182" t="s">
         <v>74</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="1">
         <v>140.32431740000001</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="1">
         <v>130.96086389999999</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="1">
         <v>136.91161339999999</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="1">
         <v>141.29202179999999</v>
       </c>
-      <c r="F182" t="s">
+      <c r="F182" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4909,19 +4911,19 @@
       <c r="A183" t="s">
         <v>230</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="1">
         <v>149.90054649999999</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="1">
         <v>136.70355470000001</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="1">
         <v>131.23924270000001</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="1">
         <v>119.1089358</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4929,19 +4931,19 @@
       <c r="A184" t="s">
         <v>0</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="1">
         <v>103.9665407</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <v>82.757037339999997</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="1">
         <v>81.417899210000002</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="1">
         <v>95.632110969999999</v>
       </c>
-      <c r="F184" t="s">
+      <c r="F184" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4949,19 +4951,19 @@
       <c r="A185" t="s">
         <v>290</v>
       </c>
-      <c r="B185" t="s">
-        <v>183</v>
-      </c>
-      <c r="C185" t="s">
-        <v>183</v>
-      </c>
-      <c r="D185" t="s">
-        <v>183</v>
-      </c>
-      <c r="E185" t="s">
-        <v>183</v>
-      </c>
-      <c r="F185" t="s">
+      <c r="B185" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4969,19 +4971,19 @@
       <c r="A186" t="s">
         <v>227</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="1">
         <v>106.8037614</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>91.850291639999995</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="1">
         <v>95.919030509999999</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="1">
         <v>94.152321439999994</v>
       </c>
-      <c r="F186" t="s">
+      <c r="F186" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4989,19 +4991,19 @@
       <c r="A187" t="s">
         <v>53</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="1">
         <v>71.669253350000005</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>76.364935650000007</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="1">
         <v>79.196269369999996</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="1">
         <v>75.555002250000001</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5009,19 +5011,19 @@
       <c r="A188" t="s">
         <v>221</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="1">
         <v>126.70578759999999</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="1">
         <v>135.5726544</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="1">
         <v>148.145421</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="1">
         <v>147.82930709999999</v>
       </c>
-      <c r="F188" t="s">
+      <c r="F188" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5029,19 +5031,19 @@
       <c r="A189" t="s">
         <v>241</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="1">
         <v>124.24632699999999</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="1">
         <v>125.5936109</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="1">
         <v>123.3665446</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="1">
         <v>124.3473047</v>
       </c>
-      <c r="F189" t="s">
+      <c r="F189" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5049,19 +5051,19 @@
       <c r="A190" t="s">
         <v>33</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="1">
         <v>126.70956169999999</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="1">
         <v>126.9492891</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="1">
         <v>127.4054064</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="1">
         <v>121.8040096</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F190" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5069,19 +5071,19 @@
       <c r="A191" t="s">
         <v>115</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="1">
         <v>88.601178169999997</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="1">
         <v>88.236429130000005</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="1">
         <v>80.203041560000003</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="1">
         <v>79.677460060000001</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5089,19 +5091,19 @@
       <c r="A192" t="s">
         <v>87</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="1">
         <v>109.55143940000001</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>117.7572718</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="1">
         <v>121.38477140000001</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="1">
         <v>118.8094765</v>
       </c>
-      <c r="F192" t="s">
+      <c r="F192" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5109,19 +5111,19 @@
       <c r="A193" t="s">
         <v>105</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="1">
         <v>74.878514870000004</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>79.644526420000005</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="1">
         <v>83.008885989999996</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="1">
         <v>84.991036249999993</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5129,19 +5131,19 @@
       <c r="A194" t="s">
         <v>287</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="1">
         <v>175.87778119999999</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="1">
         <v>181.7670258</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="1">
         <v>162.70432969999999</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="1">
         <v>168.7823161</v>
       </c>
-      <c r="F194" t="s">
+      <c r="F194" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5149,19 +5151,19 @@
       <c r="A195" t="s">
         <v>18</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="1">
         <v>116.3766548</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <v>111.3100361</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="1">
         <v>105.99386920000001</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="1">
         <v>104.93814260000001</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5169,19 +5171,19 @@
       <c r="A196" t="s">
         <v>71</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="1">
         <v>76.360781880000005</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>75.689819869999994</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="1">
         <v>77.186239279999995</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="1">
         <v>72.352952270000003</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5189,19 +5191,19 @@
       <c r="A197" t="s">
         <v>250</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="1">
         <v>102.65145029999999</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="1">
         <v>59.174281329999999</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="1">
         <v>58.905124749999999</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="1">
         <v>60.67706123</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5209,19 +5211,19 @@
       <c r="A198" t="s">
         <v>259</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="1">
         <v>131.0947831</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="1">
         <v>142.35454340000001</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="1">
         <v>130.9488475</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="1">
         <v>130.88322909999999</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5229,19 +5231,19 @@
       <c r="A199" t="s">
         <v>291</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="1">
         <v>123.7705691</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="1">
         <v>122.58829009999999</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="1">
         <v>122.12790080000001</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="1">
         <v>127.57670950000001</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5249,19 +5251,19 @@
       <c r="A200" t="s">
         <v>34</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="1">
         <v>96.749996839999994</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <v>96.776769619999996</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="1">
         <v>97.614175090000003</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="1">
         <v>101.785223</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5269,19 +5271,19 @@
       <c r="A201" t="s">
         <v>222</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="1">
         <v>96.318012039999999</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="1">
         <v>97.456084520000005</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="1">
         <v>98.629520040000003</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="1">
         <v>98.625417959999993</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5289,19 +5291,19 @@
       <c r="A202" t="s">
         <v>280</v>
       </c>
-      <c r="B202" t="s">
-        <v>183</v>
-      </c>
-      <c r="C202" t="s">
-        <v>183</v>
-      </c>
-      <c r="D202" t="s">
-        <v>183</v>
-      </c>
-      <c r="E202" t="s">
-        <v>183</v>
-      </c>
-      <c r="F202" t="s">
+      <c r="B202" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5309,19 +5311,19 @@
       <c r="A203" t="s">
         <v>61</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="1">
         <v>78.232857800000005</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="1">
         <v>82.146768890000004</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="1">
         <v>81.308157919999999</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="1">
         <v>80.328454120000004</v>
       </c>
-      <c r="F203" t="s">
+      <c r="F203" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5329,19 +5331,19 @@
       <c r="A204" t="s">
         <v>141</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="1">
         <v>58.946887050000001</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="1">
         <v>59.129329429999999</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="1">
         <v>62.356107569999999</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="1">
         <v>65.703864139999993</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5349,19 +5351,19 @@
       <c r="A205" t="s">
         <v>90</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="1">
         <v>127.753861</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="1">
         <v>130.62943630000001</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="1">
         <v>129.3411657</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="1">
         <v>135.025689</v>
       </c>
-      <c r="F205" t="s">
+      <c r="F205" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5369,19 +5371,19 @@
       <c r="A206" t="s">
         <v>26</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="1">
         <v>219.70067299999999</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="1">
         <v>212.804439</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="1">
         <v>197.84387029999999</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="1">
         <v>194.73362080000001</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5389,19 +5391,19 @@
       <c r="A207" t="s">
         <v>145</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="1">
         <v>118.7527408</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="1">
         <v>120.84848839999999</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="1">
         <v>117.8163133</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="1">
         <v>118.5668355</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F207" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5409,19 +5411,19 @@
       <c r="A208" t="s">
         <v>152</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="1">
         <v>104.847944</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="1">
         <v>106.41401949999999</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="1">
         <v>104.93537480000001</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="1">
         <v>107.319451</v>
       </c>
-      <c r="F208" t="s">
+      <c r="F208" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5429,19 +5431,19 @@
       <c r="A209" t="s">
         <v>94</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="1">
         <v>130.11725559999999</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="1">
         <v>132.02413480000001</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="1">
         <v>132.72563009999999</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="1">
         <v>136.92122019999999</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F209" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5449,19 +5451,19 @@
       <c r="A210" t="s">
         <v>120</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="1">
         <v>71.57614633</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>101.2222235</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="1">
         <v>99.583447870000001</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="1">
         <v>102.8976203</v>
       </c>
-      <c r="F210" t="s">
+      <c r="F210" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5469,19 +5471,19 @@
       <c r="A211" t="s">
         <v>255</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="1">
         <v>84.571036469999996</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="1">
         <v>87.127304499999994</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="1">
         <v>79.000272710000004</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="1">
         <v>78.295146900000006</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5489,19 +5491,19 @@
       <c r="A212" t="s">
         <v>186</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="1">
         <v>69.507846150000006</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="1">
         <v>63.773430079999997</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="1">
         <v>58.067890319999997</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="1">
         <v>60.315570289999997</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5509,19 +5511,19 @@
       <c r="A213" t="s">
         <v>155</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="1">
         <v>148.1748225</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="1">
         <v>142.23749960000001</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="1">
         <v>143.7522156</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="1">
         <v>138.86549550000001</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5529,19 +5531,19 @@
       <c r="A214" t="s">
         <v>32</v>
       </c>
-      <c r="B214" t="s">
-        <v>183</v>
-      </c>
-      <c r="C214">
+      <c r="B214" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C214" s="1">
         <v>79.34461349</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="1">
         <v>79.647956030000003</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="1">
         <v>79.927266189999997</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5549,19 +5551,19 @@
       <c r="A215" t="s">
         <v>49</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="1">
         <v>89.975753549999993</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <v>86.325385130000001</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="1">
         <v>79.631529610000001</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="1">
         <v>77.602212480000006</v>
       </c>
-      <c r="F215" t="s">
+      <c r="F215" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5569,19 +5571,19 @@
       <c r="A216" t="s">
         <v>48</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="1">
         <v>49.683449570000001</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="1">
         <v>48.303005849999998</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="1">
         <v>47.01393376</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="1">
         <v>46.019541599999997</v>
       </c>
-      <c r="F216" t="s">
+      <c r="F216" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5589,19 +5591,19 @@
       <c r="A217" t="s">
         <v>191</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="1">
         <v>86.736728009999993</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="1">
         <v>93.68966322</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="1">
         <v>100.932458</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="1">
         <v>103.9746368</v>
       </c>
-      <c r="F217" t="s">
+      <c r="F217" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5609,19 +5611,19 @@
       <c r="A218" t="s">
         <v>23</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="1">
         <v>85.761587820000003</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="1">
         <v>85.940989180000003</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="1">
         <v>84.186274299999994</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="1">
         <v>89.146019350000003</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5629,19 +5631,19 @@
       <c r="A219" t="s">
         <v>208</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="1">
         <v>72.317181575144446</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="1">
         <v>68.736998772629022</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="1">
         <v>71.060933809395323</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="1">
         <v>75.858421184045156</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F219" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5649,19 +5651,19 @@
       <c r="A220" t="s">
         <v>266</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="1">
         <v>92.581974793291621</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="1">
         <v>93.133568165822084</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="1">
         <v>98.383315274562165</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="1">
         <v>96.468739724652664</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F220" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5669,19 +5671,19 @@
       <c r="A221" t="s">
         <v>170</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="1">
         <v>96.401457983967262</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="1">
         <v>94.994432029663869</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="1">
         <v>94.294905046168083</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="1">
         <v>96.827453712693085</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F221" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5689,19 +5691,19 @@
       <c r="A222" t="s">
         <v>240</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="1">
         <v>111.09959388936278</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="1">
         <v>114.18078769772096</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="1">
         <v>111.86084132641837</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="1">
         <v>111.94527091178622</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5709,19 +5711,19 @@
       <c r="A223" t="s">
         <v>269</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="1">
         <v>119.82921846339093</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="1">
         <v>120.78879471080569</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="1">
         <v>121.6174267538176</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="1">
         <v>124.39620039921326</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F223" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5729,19 +5731,19 @@
       <c r="A224" t="s">
         <v>184</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="1">
         <v>95.607735211333846</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="1">
         <v>95.767423926401847</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="1">
         <v>95.404228272864628</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="1">
         <v>97.479949760692165</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5749,19 +5751,19 @@
       <c r="A225" t="s">
         <v>160</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="1">
         <v>122.30772658641861</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="1">
         <v>128.54874537125056</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="1">
         <v>126.53772122455206</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="1">
         <v>128.07167134115318</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5769,19 +5771,19 @@
       <c r="A226" t="s">
         <v>199</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="1">
         <v>120.38849250900795</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="1">
         <v>126.85444760871879</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="1">
         <v>124.18329453994748</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="1">
         <v>125.26620898721768</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F226" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5789,19 +5791,19 @@
       <c r="A227" t="s">
         <v>147</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="1">
         <v>120.38849250900795</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="1">
         <v>128.21085257780905</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="1">
         <v>125.42442545422311</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="1">
         <v>126.52276077049348</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F227" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5809,19 +5811,19 @@
       <c r="A228" t="s">
         <v>200</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="1">
         <v>122.71103766191409</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="1">
         <v>122.23315494237916</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="1">
         <v>121.60195617225841</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="1">
         <v>122.45511619957593</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F228" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5829,19 +5831,19 @@
       <c r="A229" t="s">
         <v>70</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="1">
         <v>123.38391386625884</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="1">
         <v>125.7879397633934</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="1">
         <v>124.89500249460768</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="1">
         <v>127.27541772339809</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F229" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5849,19 +5851,19 @@
       <c r="A230" t="s">
         <v>213</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="1">
         <v>125.82119917221752</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="1">
         <v>131.13096475853331</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="1">
         <v>129.892922304309</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="1">
         <v>133.99308940476161</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F230" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5869,19 +5871,19 @@
       <c r="A231" t="s">
         <v>91</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="1">
         <v>125.15234315877404</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="1">
         <v>129.81980597374047</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="1">
         <v>128.98661428053632</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="1">
         <v>132.96475921413926</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5889,19 +5891,19 @@
       <c r="A232" t="s">
         <v>166</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="1">
         <v>121.95528691576558</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="1">
         <v>121.79956273611191</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="1">
         <v>121.47637172011456</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="1">
         <v>122.71176228531499</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5909,19 +5911,19 @@
       <c r="A233" t="s">
         <v>136</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="1">
         <v>76.781121175066559</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="1">
         <v>74.446815654145524</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="1">
         <v>75.981567772511966</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="1">
         <v>76.012455562604345</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F233" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5929,19 +5931,19 @@
       <c r="A234" t="s">
         <v>102</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="1">
         <v>72.134817476378046</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="1">
         <v>68.096840204362621</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="1">
         <v>70.931690339418068</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="1">
         <v>74.484756839729883</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F234" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5949,19 +5951,19 @@
       <c r="A235" t="s">
         <v>173</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="1">
         <v>120.64743090733866</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="1">
         <v>121.99010391040322</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="1">
         <v>121.85693562757604</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="1">
         <v>124.41156988396094</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F235" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5969,19 +5971,19 @@
       <c r="A236" t="s">
         <v>231</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="1">
         <v>108.62178594352797</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="1">
         <v>111.20428583535363</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="1">
         <v>109.78739302973224</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="1">
         <v>111.83801477234468</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F236" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5989,19 +5991,19 @@
       <c r="A237" t="s">
         <v>167</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="1">
         <v>102.00579571400077</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="1">
         <v>103.46518738589818</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="1">
         <v>103.09369022314436</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="1">
         <v>104.87132301259508</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F237" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6009,19 +6011,19 @@
       <c r="A238" t="s">
         <v>14</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="1">
         <v>79.423092895698943</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="1">
         <v>85.200700023946425</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="1">
         <v>90.041613662909256</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="1">
         <v>89.849440332265175</v>
       </c>
-      <c r="F238" t="s">
+      <c r="F238" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6029,19 +6031,19 @@
       <c r="A239" t="s">
         <v>129</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="1">
         <v>82.419597677697581</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="1">
         <v>79.848349437977177</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="1">
         <v>81.745301848367376</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="1">
         <v>83.842794791653873</v>
       </c>
-      <c r="F239" t="s">
+      <c r="F239" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6049,19 +6051,19 @@
       <c r="A240" t="s">
         <v>2</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="1">
         <v>81.330936559044787</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="1">
         <v>81.623867999134788</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="1">
         <v>84.492522660490735</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="1">
         <v>85.829053470234768</v>
       </c>
-      <c r="F240" t="s">
+      <c r="F240" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6069,19 +6071,19 @@
       <c r="A241" t="s">
         <v>114</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="1">
         <v>122.71116367273426</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="1">
         <v>125.4048983760464</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="1">
         <v>123.57214496093627</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="1">
         <v>125.81708669891725</v>
       </c>
-      <c r="F241" t="s">
+      <c r="F241" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6089,19 +6091,19 @@
       <c r="A242" t="s">
         <v>188</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="1">
         <v>104.97353638675175</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="1">
         <v>102.5167577755446</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="1">
         <v>102.06926119684402</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="1">
         <v>107.77312249962308</v>
       </c>
-      <c r="F242" t="s">
+      <c r="F242" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6109,19 +6111,19 @@
       <c r="A243" t="s">
         <v>9</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="1">
         <v>105.41635545636744</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="1">
         <v>102.92763294438514</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="1">
         <v>102.68064357608547</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="1">
         <v>108.60083209315343</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F243" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6129,19 +6131,19 @@
       <c r="A244" t="s">
         <v>117</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="1">
         <v>106.04338311958212</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="1">
         <v>103.38615355308474</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="1">
         <v>102.79768051674877</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="1">
         <v>108.53554180488008</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F244" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6149,19 +6151,19 @@
       <c r="A245" t="s">
         <v>225</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="1">
         <v>75.377714441563384</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="1">
         <v>73.8264943239285</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="1">
         <v>75.896645753179385</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="1">
         <v>77.850232068790987</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F245" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6169,19 +6171,19 @@
       <c r="A246" t="s">
         <v>37</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="1">
         <v>101.7185991821197</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="1">
         <v>102.89296170187235</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="1">
         <v>102.56169001173858</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="1">
         <v>104.30975191093896</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F246" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6189,19 +6191,19 @@
       <c r="A247" t="s">
         <v>229</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="1">
         <v>61.989282887053633</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="1">
         <v>56.761469714714849</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="1">
         <v>59.757922694284936</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="1">
         <v>63.739478228667387</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F247" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6209,19 +6211,19 @@
       <c r="A248" t="s">
         <v>219</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="1">
         <v>95.2776210718187</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="1">
         <v>98.165356179995058</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="1">
         <v>98.943766459647875</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="1">
         <v>99.678191846062902</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F248" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6229,19 +6231,19 @@
       <c r="A249" t="s">
         <v>137</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="1">
         <v>102.12932435198688</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="1">
         <v>106.43638844364088</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="1">
         <v>107.07603427851235</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="1">
         <v>111.23633091218325</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F249" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6249,19 +6251,19 @@
       <c r="A250" t="s">
         <v>161</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="1">
         <v>95.859461699678434</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="1">
         <v>101.2786247323159</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="1">
         <v>102.05901361744024</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="1">
         <v>106.3696221720849</v>
       </c>
-      <c r="F250" t="s">
+      <c r="F250" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6269,19 +6271,19 @@
       <c r="A251" t="s">
         <v>211</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="1">
         <v>95.933313351923047</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="1">
         <v>101.46450110102852</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="1">
         <v>102.33996605677879</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="1">
         <v>106.73306580541934</v>
       </c>
-      <c r="F251" t="s">
+      <c r="F251" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6289,19 +6291,19 @@
       <c r="A252" t="s">
         <v>21</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="1">
         <v>105.28696287257706</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="1">
         <v>108.4684079091916</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="1">
         <v>107.90022404613288</v>
       </c>
-      <c r="E252">
+      <c r="E252" s="1">
         <v>109.50734886548814</v>
       </c>
-      <c r="F252" t="s">
+      <c r="F252" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6309,19 +6311,19 @@
       <c r="A253" t="s">
         <v>95</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="1">
         <v>103.3257125533421</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="1">
         <v>104.91814587386723</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="1">
         <v>102.9568230934256</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="1">
         <v>105.36387971828586</v>
       </c>
-      <c r="F253" t="s">
+      <c r="F253" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6329,19 +6331,19 @@
       <c r="A254" t="s">
         <v>232</v>
       </c>
-      <c r="B254" t="s">
-        <v>183</v>
-      </c>
-      <c r="C254" t="s">
-        <v>183</v>
-      </c>
-      <c r="D254" t="s">
-        <v>183</v>
-      </c>
-      <c r="E254" t="s">
-        <v>183</v>
-      </c>
-      <c r="F254" t="s">
+      <c r="B254" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6349,19 +6351,19 @@
       <c r="A255" t="s">
         <v>106</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="1">
         <v>115.71133969794172</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="1">
         <v>116.85919930360063</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="1">
         <v>116.84697073912852</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="1">
         <v>119.63993763603133</v>
       </c>
-      <c r="F255" t="s">
+      <c r="F255" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6369,19 +6371,19 @@
       <c r="A256" t="s">
         <v>248</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="1">
         <v>114.3175917815482</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="1">
         <v>112.73226800901693</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="1">
         <v>112.66973527107396</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="1">
         <v>117.67731095908812</v>
       </c>
-      <c r="F256" t="s">
+      <c r="F256" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6389,19 +6391,19 @@
       <c r="A257" t="s">
         <v>224</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="1">
         <v>86.860975205267053</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="1">
         <v>81.074206193960364</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="1">
         <v>77.075642247114729</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="1">
         <v>76.179715942920751</v>
       </c>
-      <c r="F257" t="s">
+      <c r="F257" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6409,19 +6411,19 @@
       <c r="A258" t="s">
         <v>187</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="1">
         <v>118.57131976692136</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="1">
         <v>120.32584029156766</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="1">
         <v>120.08225989792736</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="1">
         <v>122.63115709888412</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F258" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6429,19 +6431,19 @@
       <c r="A259" t="s">
         <v>42</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="1">
         <v>73.384838994900633</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="1">
         <v>75.745428964189486</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="1">
         <v>79.95494493551513</v>
       </c>
-      <c r="E259">
+      <c r="E259" s="1">
         <v>80.368535277952361</v>
       </c>
-      <c r="F259" t="s">
+      <c r="F259" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6449,19 +6451,19 @@
       <c r="A260" t="s">
         <v>67</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="1">
         <v>112.20130621365283</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="1">
         <v>111.06361428318003</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="1">
         <v>110.35600323991032</v>
       </c>
-      <c r="E260">
+      <c r="E260" s="1">
         <v>114.14759287865074</v>
       </c>
-      <c r="F260" t="s">
+      <c r="F260" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6469,19 +6471,19 @@
       <c r="A261" t="s">
         <v>138</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="1">
         <v>86.108497708490717</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="1">
         <v>84.538839309382638</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="1">
         <v>84.878844252969259</v>
       </c>
-      <c r="E261">
+      <c r="E261" s="1">
         <v>85.212592421686637</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F261" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6489,19 +6491,19 @@
       <c r="A262" t="s">
         <v>181</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="1">
         <v>86.108497708490688</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="1">
         <v>84.538839309382624</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="1">
         <v>84.878844252969259</v>
       </c>
-      <c r="E262">
+      <c r="E262" s="1">
         <v>85.212592421686637</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F262" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6509,19 +6511,19 @@
       <c r="A263" t="s">
         <v>283</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="1">
         <v>81.169827415539643</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="1">
         <v>78.618994868620817</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="1">
         <v>82.124030576512183</v>
       </c>
-      <c r="E263">
+      <c r="E263" s="1">
         <v>84.202089016947042</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F263" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6529,19 +6531,19 @@
       <c r="A264" t="s">
         <v>261</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="1">
         <v>81.159803262988206</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="1">
         <v>78.609042340544406</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="1">
         <v>82.115619394232837</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="1">
         <v>84.194114219897017</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F264" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6549,19 +6551,19 @@
       <c r="A265" t="s">
         <v>29</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="1">
         <v>81.169827415539643</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="1">
         <v>78.618994868620817</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="1">
         <v>82.124030576512169</v>
       </c>
-      <c r="E265">
+      <c r="E265" s="1">
         <v>84.202089016947042</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F265" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6569,19 +6571,19 @@
       <c r="A266" t="s">
         <v>153</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="1">
         <v>118.48496783332092</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="1">
         <v>122.11770664528811</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="1">
         <v>119.8661405321788</v>
       </c>
-      <c r="E266">
+      <c r="E266" s="1">
         <v>122.75708586680855</v>
       </c>
-      <c r="F266" t="s">
+      <c r="F266" s="1" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6589,24 +6591,25 @@
       <c r="A267" t="s">
         <v>79</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="1">
         <v>104.69766043618782</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="1">
         <v>105.79378843382194</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="1">
         <v>105.45618652673987</v>
       </c>
-      <c r="E267">
+      <c r="E267" s="1">
         <v>107.31193594348123</v>
       </c>
-      <c r="F267" t="s">
+      <c r="F267" s="1" t="s">
         <v>183</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
